--- a/scraper/top_remaining_spreadsheets_states/top_remaining_ME.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_ME.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>STATE</t>
   </si>
@@ -44,15 +44,15 @@
     <t>BASEBALL</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>5X THE CASH</t>
   </si>
   <si>
     <t>CASH TO GO!</t>
   </si>
   <si>
-    <t>5X THE CASH</t>
-  </si>
-  <si>
     <t>LUCKY ROLL</t>
   </si>
   <si>
@@ -86,24 +86,24 @@
     <t>CASHING THRU THE SNOW</t>
   </si>
   <si>
+    <t>FANG-TASTIC FORTUNE</t>
+  </si>
+  <si>
     <t>10X THE CASH</t>
   </si>
   <si>
-    <t>FANG-TASTIC FORTUNE</t>
+    <t>LUCKY 13</t>
   </si>
   <si>
     <t>BLACKJACK</t>
   </si>
   <si>
-    <t>LUCKY 13</t>
+    <t>DIAMOND FORTUNE</t>
   </si>
   <si>
     <t>MONOPOLY FREE PARKING</t>
   </si>
   <si>
-    <t>DIAMOND FORTUNE</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
@@ -125,36 +125,39 @@
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>FAT WALLET</t>
+  </si>
+  <si>
     <t>PATRIOTS</t>
   </si>
   <si>
-    <t>FAT WALLET</t>
-  </si>
-  <si>
     <t>THE WIZARD OF OZ</t>
   </si>
   <si>
     <t>$100,000 BONANZA</t>
   </si>
   <si>
+    <t>THE 12 DAYS OF CHRISTMAS</t>
+  </si>
+  <si>
+    <t>WIN IT ALL</t>
+  </si>
+  <si>
+    <t>CASH MONEY</t>
+  </si>
+  <si>
+    <t>RIGHT ON THE MONEY</t>
+  </si>
+  <si>
+    <t>20X THE CASH</t>
+  </si>
+  <si>
+    <t>SUPER CROSSWORD</t>
+  </si>
+  <si>
     <t>$100,000 BONUS PLAY</t>
   </si>
   <si>
-    <t>THE 12 DAYS OF CHRISTMAS</t>
-  </si>
-  <si>
-    <t>CASH MONEY</t>
-  </si>
-  <si>
-    <t>RIGHT ON THE MONEY</t>
-  </si>
-  <si>
-    <t>20X THE CASH</t>
-  </si>
-  <si>
-    <t>SUPER CROSSWORD</t>
-  </si>
-  <si>
     <t>POKER RICHE$</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
   </si>
   <si>
     <t>$50,000 CASH</t>
+  </si>
+  <si>
+    <t>$500,000 PAYOUT</t>
   </si>
   <si>
     <t>50X THE CASH</t>
@@ -548,7 +554,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,10 +613,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -627,10 +633,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -644,13 +650,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -664,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -684,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -704,13 +710,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -724,13 +730,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -741,16 +747,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -764,10 +770,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -784,13 +790,13 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -804,13 +810,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -824,10 +830,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -844,13 +850,13 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -864,13 +870,13 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -884,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>400</v>
@@ -924,13 +930,13 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -944,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>410</v>
@@ -964,13 +970,13 @@
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -984,7 +990,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>415</v>
@@ -1004,13 +1010,13 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1021,16 +1027,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1044,13 +1050,13 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1064,13 +1070,13 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1084,13 +1090,13 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1104,10 +1110,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1121,16 +1127,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1144,7 +1150,7 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30">
         <v>403</v>
@@ -1164,10 +1170,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1184,13 +1190,13 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>402</v>
+        <v>322</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1204,13 +1210,13 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1224,7 +1230,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <v>408</v>
@@ -1244,13 +1250,13 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1264,13 +1270,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1284,13 +1290,13 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1304,13 +1310,13 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D38">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1324,10 +1330,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1344,13 +1350,13 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1364,13 +1370,13 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1384,10 +1390,10 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1401,16 +1407,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1421,16 +1427,16 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
       <c r="D44">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1441,13 +1447,13 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1461,16 +1467,16 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1481,16 +1487,16 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1501,16 +1507,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1521,16 +1527,16 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49">
-        <v>339</v>
+        <v>422</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1541,16 +1547,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1561,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
         <v>58</v>
       </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
       <c r="D51">
-        <v>417</v>
+        <v>339</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1581,16 +1587,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D52">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1601,16 +1607,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1621,18 +1627,78 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>417</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D55">
+        <v>304</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
         <v>64</v>
       </c>
-      <c r="D54">
+      <c r="D56">
+        <v>329</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57">
         <v>327</v>
       </c>
-      <c r="E54">
+      <c r="E57">
         <v>1</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F57" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_ME.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_ME.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>BASEBALL</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
   </si>
   <si>
     <t>5X THE CASH</t>
@@ -68,105 +68,108 @@
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>LUCKY DOG</t>
+  </si>
+  <si>
     <t>BIG BANG BUCKS</t>
   </si>
   <si>
-    <t>LUCKY DOG</t>
-  </si>
-  <si>
     <t>CABIN FEVER</t>
   </si>
   <si>
     <t>EASY $50</t>
   </si>
   <si>
+    <t>LUCKY 13</t>
+  </si>
+  <si>
     <t>NEON GREEN</t>
   </si>
   <si>
     <t>CASHING THRU THE SNOW</t>
   </si>
   <si>
+    <t>BLACKJACK</t>
+  </si>
+  <si>
     <t>FANG-TASTIC FORTUNE</t>
   </si>
   <si>
+    <t>MONOPOLY FREE PARKING</t>
+  </si>
+  <si>
     <t>10X THE CASH</t>
   </si>
   <si>
-    <t>LUCKY 13</t>
-  </si>
-  <si>
-    <t>BLACKJACK</t>
-  </si>
-  <si>
     <t>DIAMOND FORTUNE</t>
   </si>
   <si>
-    <t>MONOPOLY FREE PARKING</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
     <t>BLINGO BINGO</t>
   </si>
   <si>
+    <t>MAINE CROSSWORD</t>
+  </si>
+  <si>
+    <t>WINTER CROSSWORD</t>
+  </si>
+  <si>
+    <t>TWISTED</t>
+  </si>
+  <si>
     <t>BINGO</t>
   </si>
   <si>
-    <t>MAINE CROSSWORD</t>
-  </si>
-  <si>
     <t>SCRATCH KENO</t>
   </si>
   <si>
-    <t>WINTER CROSSWORD</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>PATRIOTS</t>
+  </si>
+  <si>
+    <t>THE WIZARD OF OZ</t>
+  </si>
+  <si>
+    <t>$100,000 BONANZA</t>
+  </si>
+  <si>
+    <t>SUPER CROSSWORD</t>
+  </si>
+  <si>
+    <t>CASH MONEY</t>
+  </si>
+  <si>
+    <t>THE 12 DAYS OF CHRISTMAS</t>
+  </si>
+  <si>
+    <t>20X THE CASH</t>
+  </si>
+  <si>
+    <t>$100,000 BONUS PLAY</t>
+  </si>
+  <si>
+    <t>BOSTON RED SOX</t>
+  </si>
+  <si>
+    <t>WIN IT ALL</t>
+  </si>
+  <si>
+    <t>RIGHT ON THE MONEY</t>
+  </si>
+  <si>
+    <t>POKER RICHE$</t>
+  </si>
+  <si>
+    <t>BONUS LETTER CROSSWORD</t>
+  </si>
+  <si>
     <t>FAT WALLET</t>
   </si>
   <si>
-    <t>PATRIOTS</t>
-  </si>
-  <si>
-    <t>THE WIZARD OF OZ</t>
-  </si>
-  <si>
-    <t>$100,000 BONANZA</t>
-  </si>
-  <si>
-    <t>THE 12 DAYS OF CHRISTMAS</t>
-  </si>
-  <si>
-    <t>WIN IT ALL</t>
-  </si>
-  <si>
-    <t>CASH MONEY</t>
-  </si>
-  <si>
-    <t>RIGHT ON THE MONEY</t>
-  </si>
-  <si>
-    <t>20X THE CASH</t>
-  </si>
-  <si>
-    <t>SUPER CROSSWORD</t>
-  </si>
-  <si>
-    <t>$100,000 BONUS PLAY</t>
-  </si>
-  <si>
-    <t>POKER RICHE$</t>
-  </si>
-  <si>
-    <t>BONUS LETTER CROSSWORD</t>
-  </si>
-  <si>
-    <t>$100,000 TRIPLE PLAY</t>
-  </si>
-  <si>
     <t>DOUBLE SIDED DOLLARS</t>
   </si>
   <si>
@@ -182,28 +185,28 @@
     <t>25X THE CASH</t>
   </si>
   <si>
+    <t>$250,000 RICHES</t>
+  </si>
+  <si>
+    <t>$10,000,000 CASH BLAST</t>
+  </si>
+  <si>
     <t>WILLY WONKA GOLDEN TICKET</t>
   </si>
   <si>
-    <t>$250,000 RICHES</t>
-  </si>
-  <si>
-    <t>$10,000,000 CASH BLAST</t>
-  </si>
-  <si>
     <t>CASH RESERVE</t>
   </si>
   <si>
     <t>$20.00 Games</t>
   </si>
   <si>
+    <t>50X THE CASH</t>
+  </si>
+  <si>
+    <t>$500,000 PAYOUT</t>
+  </si>
+  <si>
     <t>$50,000 CASH</t>
-  </si>
-  <si>
-    <t>$500,000 PAYOUT</t>
-  </si>
-  <si>
-    <t>50X THE CASH</t>
   </si>
   <si>
     <t>50X THE MONEY</t>
@@ -554,7 +557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +639,7 @@
         <v>413</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -656,7 +659,7 @@
         <v>423</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -676,7 +679,7 @@
         <v>421</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -716,7 +719,7 @@
         <v>367</v>
       </c>
       <c r="E8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -773,7 +776,7 @@
         <v>17</v>
       </c>
       <c r="D11">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -793,7 +796,7 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -816,7 +819,7 @@
         <v>406</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -853,10 +856,10 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -873,10 +876,10 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -893,7 +896,7 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -909,14 +912,14 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
-        <v>2018</v>
+      <c r="C18" t="s">
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -930,13 +933,13 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -949,14 +952,14 @@
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
+      <c r="C20">
+        <v>2018</v>
       </c>
       <c r="D20">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -973,10 +976,10 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -993,10 +996,10 @@
         <v>27</v>
       </c>
       <c r="D22">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1013,10 +1016,10 @@
         <v>28</v>
       </c>
       <c r="D23">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1030,7 +1033,7 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D24">
         <v>379</v>
@@ -1073,10 +1076,10 @@
         <v>31</v>
       </c>
       <c r="D26">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1093,10 +1096,10 @@
         <v>32</v>
       </c>
       <c r="D27">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1113,10 +1116,10 @@
         <v>33</v>
       </c>
       <c r="D28">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1133,10 +1136,10 @@
         <v>34</v>
       </c>
       <c r="D29">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1147,16 +1150,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
         <v>35</v>
       </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
       <c r="D30">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1167,7 +1170,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>37</v>
@@ -1187,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>38</v>
@@ -1207,7 +1210,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>39</v>
@@ -1227,13 +1230,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
       </c>
       <c r="D34">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1247,16 +1250,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
       </c>
       <c r="D35">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1267,16 +1270,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
       </c>
       <c r="D36">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1287,16 +1290,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>43</v>
       </c>
       <c r="D37">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1307,13 +1310,13 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
       </c>
       <c r="D38">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -1327,16 +1330,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>45</v>
       </c>
       <c r="D39">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1347,16 +1350,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
       </c>
       <c r="D40">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1367,16 +1370,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>47</v>
       </c>
       <c r="D41">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1387,16 +1390,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
       </c>
       <c r="D42">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1407,13 +1410,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>49</v>
       </c>
       <c r="D43">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1427,13 +1430,13 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
       </c>
       <c r="D44">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1447,16 +1450,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" t="s">
         <v>51</v>
       </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
       <c r="D45">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1467,13 +1470,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
       </c>
       <c r="D46">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1487,13 +1490,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
       </c>
       <c r="D47">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1507,16 +1510,16 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
       </c>
       <c r="D48">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1527,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -1547,7 +1550,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -1567,16 +1570,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
       </c>
       <c r="D51">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1587,16 +1590,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
         <v>59</v>
       </c>
-      <c r="C52" t="s">
-        <v>60</v>
-      </c>
       <c r="D52">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1607,16 +1610,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>61</v>
       </c>
       <c r="D53">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1627,16 +1630,16 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>62</v>
       </c>
       <c r="D54">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1647,16 +1650,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
       </c>
       <c r="D55">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1667,13 +1670,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>64</v>
       </c>
       <c r="D56">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1687,18 +1690,38 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
         <v>65</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57">
+        <v>329</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
         <v>66</v>
       </c>
-      <c r="D57">
+      <c r="C58" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58">
         <v>327</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" t="s">
         <v>9</v>
       </c>
     </row>
